--- a/smtp.xlsx
+++ b/smtp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">sender_name</t>
   </si>
@@ -37,10 +37,13 @@
     <t xml:space="preserve">fgfgytrytu6@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">xxxxxxxx</t>
+    <t xml:space="preserve">XXXXXX</t>
   </si>
   <si>
     <t xml:space="preserve">yruitit4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
